--- a/Values.xlsx
+++ b/Values.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tymos\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486D608-AD0E-417B-B3F6-5E658ACEDBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -134,16 +140,13 @@
   </si>
   <si>
     <t>2024-10-31</t>
-  </si>
-  <si>
-    <t>2024-12-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +209,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +261,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -284,6 +295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,9 +330,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,14 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -537,13 +552,13 @@
         <v>14.7</v>
       </c>
       <c r="C2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D2">
         <v>8.9</v>
       </c>
       <c r="E2">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F2">
         <v>22.5</v>
@@ -558,7 +573,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -569,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E3">
         <v>8.9</v>
@@ -581,13 +596,13 @@
         <v>3.3</v>
       </c>
       <c r="H3">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I3">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -601,7 +616,7 @@
         <v>8.6</v>
       </c>
       <c r="E4">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F4">
         <v>23.6</v>
@@ -610,13 +625,13 @@
         <v>3.4</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I4">
         <v>8.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -627,10 +642,10 @@
         <v>1.5</v>
       </c>
       <c r="D5">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E5">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F5">
         <v>23.7</v>
@@ -642,10 +657,10 @@
         <v>8.6</v>
       </c>
       <c r="I5">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -659,7 +674,7 @@
         <v>8.6</v>
       </c>
       <c r="E6">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F6">
         <v>22</v>
@@ -671,10 +686,10 @@
         <v>8.5</v>
       </c>
       <c r="I6">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -703,7 +718,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -729,10 +744,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -755,13 +770,13 @@
         <v>3.3</v>
       </c>
       <c r="H9">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I9">
         <v>8.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -775,7 +790,7 @@
         <v>8.9</v>
       </c>
       <c r="E10">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F10">
         <v>22.2</v>
@@ -784,13 +799,13 @@
         <v>3.3</v>
       </c>
       <c r="H10">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I10">
         <v>8.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -798,13 +813,13 @@
         <v>15.4</v>
       </c>
       <c r="C11">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D11">
         <v>8.6</v>
       </c>
       <c r="E11">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F11">
         <v>22.7</v>
@@ -813,13 +828,13 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -833,7 +848,7 @@
         <v>8.5</v>
       </c>
       <c r="E12">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F12">
         <v>23.9</v>
@@ -845,10 +860,10 @@
         <v>8.9</v>
       </c>
       <c r="I12">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -877,7 +892,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -903,10 +918,10 @@
         <v>8.9</v>
       </c>
       <c r="I14">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -914,13 +929,13 @@
         <v>14.4</v>
       </c>
       <c r="C15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15">
         <v>9.6</v>
       </c>
       <c r="E15">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F15">
         <v>24.9</v>
@@ -935,7 +950,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -958,13 +973,13 @@
         <v>3.3</v>
       </c>
       <c r="H16">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I16">
         <v>9.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -990,10 +1005,10 @@
         <v>8.5</v>
       </c>
       <c r="I17">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1004,7 +1019,7 @@
         <v>1.3</v>
       </c>
       <c r="D18">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E18">
         <v>8.5</v>
@@ -1019,10 +1034,10 @@
         <v>8.6</v>
       </c>
       <c r="I18">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1059,7 +1074,7 @@
         <v>14.9</v>
       </c>
       <c r="C20">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D20">
         <v>8.9</v>
@@ -1074,13 +1089,13 @@
         <v>3.1</v>
       </c>
       <c r="H20">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I20">
         <v>8.9</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1091,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="D21">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1109,7 +1124,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1120,7 +1135,7 @@
         <v>1.4</v>
       </c>
       <c r="D22">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E22">
         <v>8.9</v>
@@ -1138,7 +1153,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1152,7 +1167,7 @@
         <v>8.5</v>
       </c>
       <c r="E23">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F23">
         <v>22.1</v>
@@ -1161,13 +1176,13 @@
         <v>3.3</v>
       </c>
       <c r="H23">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I23">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1193,7 @@
         <v>1.4</v>
       </c>
       <c r="D24">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E24">
         <v>8.9</v>
@@ -1196,7 +1211,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1207,7 +1222,7 @@
         <v>1.3</v>
       </c>
       <c r="D25">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E25">
         <v>8.9</v>
@@ -1225,7 +1240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1248,13 +1263,13 @@
         <v>3.1</v>
       </c>
       <c r="H26">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I26">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1265,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E27">
         <v>8.9</v>
@@ -1277,13 +1292,13 @@
         <v>3.2</v>
       </c>
       <c r="H27">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1291,13 +1306,13 @@
         <v>14.4</v>
       </c>
       <c r="C28">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D28">
         <v>8.9</v>
       </c>
       <c r="E28">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F28">
         <v>23.8</v>
@@ -1306,13 +1321,13 @@
         <v>3.1</v>
       </c>
       <c r="H28">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I28">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1323,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E29">
         <v>8.9</v>
@@ -1341,7 +1356,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1370,7 +1385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1384,7 +1399,7 @@
         <v>8.9</v>
       </c>
       <c r="E31">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F31">
         <v>23</v>
@@ -1396,10 +1411,10 @@
         <v>8.6</v>
       </c>
       <c r="I31">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1407,7 +1422,7 @@
         <v>15.2</v>
       </c>
       <c r="C32">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D32">
         <v>8.9</v>
@@ -1422,97 +1437,10 @@
         <v>3.3</v>
       </c>
       <c r="H32">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I32">
         <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F33">
-        <v>23</v>
-      </c>
-      <c r="G33">
-        <v>25</v>
-      </c>
-      <c r="H33">
-        <v>9.4</v>
-      </c>
-      <c r="I33">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1.2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Values.xlsx
+++ b/Values.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tymos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tymos\Documents\TKF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486D608-AD0E-417B-B3F6-5E658ACEDBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED1237-777E-4B75-BAA6-0F3D4CE3F4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Aluminum Gloeier pH Waarde</t>
+  </si>
+  <si>
+    <t>Medewerker</t>
   </si>
   <si>
     <t>2024-10-01</t>
@@ -507,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,10 +546,13 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>14.7</v>
@@ -573,9 +579,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>15.9</v>
@@ -602,9 +608,9 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>15.5</v>
@@ -631,9 +637,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>15.2</v>
@@ -660,9 +666,9 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>14.3</v>
@@ -689,9 +695,9 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>14.3</v>
@@ -718,9 +724,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>14.1</v>
@@ -747,9 +753,9 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>15.7</v>
@@ -776,9 +782,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>15.2</v>
@@ -805,9 +811,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>15.4</v>
@@ -834,9 +840,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -863,9 +869,9 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>15.9</v>
@@ -892,9 +898,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>15.7</v>
@@ -921,9 +927,9 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>14.4</v>
@@ -950,9 +956,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>14.4</v>
@@ -981,7 +987,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>14.4</v>
@@ -1010,7 +1016,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>14.6</v>
@@ -1039,7 +1045,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>15</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>14.9</v>
@@ -1097,7 +1103,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>14.6</v>
@@ -1126,7 +1132,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>15.2</v>
@@ -1155,7 +1161,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>14.3</v>
@@ -1184,7 +1190,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>14.6</v>
@@ -1213,7 +1219,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>14.7</v>
@@ -1242,7 +1248,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>14.9</v>
@@ -1271,7 +1277,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>15.6</v>
@@ -1300,7 +1306,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>14.4</v>
@@ -1329,7 +1335,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>15</v>
@@ -1358,7 +1364,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>15.2</v>
@@ -1387,7 +1393,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>14.1</v>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>15.2</v>
